--- a/docs/Output/Excel/features.xlsx
+++ b/docs/Output/Excel/features.xlsx
@@ -17,18 +17,19 @@
     <x:sheet name="SHOWTHEUSEOFBACKGROUND" sheetId="10" r:id="rId10"/>
     <x:sheet name="SHOWINGTABLEUSAGE" sheetId="11" r:id="rId11"/>
     <x:sheet name="SHOWTHECOMPARETOFEATURE" sheetId="12" r:id="rId12"/>
-    <x:sheet name="SUMMERING" sheetId="13" r:id="rId13"/>
-    <x:sheet name="ATTRIBUTEOVERLOADING" sheetId="14" r:id="rId14"/>
-    <x:sheet name="CALLINGSTEPSFROMSTEPDEFINITIONS" sheetId="15" r:id="rId15"/>
-    <x:sheet name="STEPARGUMENTTRANSFORMATIONS" sheetId="16" r:id="rId16"/>
-    <x:sheet name="INJECTINGCONTEXTINTOSTEPSPECIFI" sheetId="17" r:id="rId17"/>
-    <x:sheet name="NESTEDFOLDEREXAMPLE" sheetId="18" r:id="rId18"/>
-    <x:sheet name="MULTILINEFEATUREEXAMPLE" sheetId="19" r:id="rId19"/>
-    <x:sheet name="SAMPLEMARKDOWNFEATURE" sheetId="20" r:id="rId20"/>
-    <x:sheet name="INTERACTIVEDHTMLVIEW" sheetId="21" r:id="rId21"/>
-    <x:sheet name="ARITHMETIC" sheetId="22" r:id="rId22"/>
-    <x:sheet name="TRIGONOMETRY" sheetId="23" r:id="rId23"/>
-    <x:sheet name="CLEARINGSCREEN" sheetId="24" r:id="rId24"/>
+    <x:sheet name="SVENSKA-SUMMERING" sheetId="13" r:id="rId13"/>
+    <x:sheet name="TESTDECULTUURINHETVLAAMS" sheetId="14" r:id="rId14"/>
+    <x:sheet name="ATTRIBUTEOVERLOADING" sheetId="15" r:id="rId15"/>
+    <x:sheet name="CALLINGSTEPSFROMSTEPDEFINITIONS" sheetId="16" r:id="rId16"/>
+    <x:sheet name="STEPARGUMENTTRANSFORMATIONS" sheetId="17" r:id="rId17"/>
+    <x:sheet name="INJECTINGCONTEXTINTOSTEPSPECIFI" sheetId="18" r:id="rId18"/>
+    <x:sheet name="NESTEDFOLDEREXAMPLE" sheetId="19" r:id="rId19"/>
+    <x:sheet name="MULTILINEFEATUREEXAMPLE" sheetId="20" r:id="rId20"/>
+    <x:sheet name="SAMPLEMARKDOWNFEATURE" sheetId="21" r:id="rId21"/>
+    <x:sheet name="INTERACTIVEDHTMLVIEW" sheetId="22" r:id="rId22"/>
+    <x:sheet name="ARITHMETIC" sheetId="23" r:id="rId23"/>
+    <x:sheet name="TRIGONOMETRY" sheetId="24" r:id="rId24"/>
+    <x:sheet name="CLEARINGSCREEN" sheetId="25" r:id="rId25"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -36,13 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <x:si>
     <x:t>Showing basic gherkin syntax</x:t>
   </x:si>
   <x:si>
-    <x:t>In order to see that gherkin is a very simple language
-As a SpecFlow evangelist
+    <x:t>In order to see that gherkin is a very simple language  
+As a SpecFlow evangelist  
 I want to show that basic syntax
 ![Test Image](test.jpg)</x:t>
   </x:si>
@@ -89,9 +90,9 @@
     <x:t>The test runner is not (very) important</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to show that the test runner is just for the autogenerated stuff in SpecFlow  
-	As a SpecFlow evanglist  
-	I want to be able to call my steps in the same manner inspite of the testrunner configured  </x:t>
+    <x:t>In order to show that the test runner is just for the autogenerated stuff in SpecFlow  
+As a SpecFlow evanglist  
+I want to be able to call my steps in the same manner inspite of the testrunner configured</x:t>
   </x:si>
   <x:si>
     <x:t>A couple of simple steps</x:t>
@@ -109,9 +110,9 @@
     <x:t>Addition</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to explain the order in which hooks are run
-	As a SpecFlow evanglist
-	I wan to  be able to hook into pre and post conditions in SpecFlow</x:t>
+    <x:t>In order to explain the order in which hooks are run  
+As a SpecFlow evanglist  
+I wan to  be able to hook into pre and post conditions in SpecFlow</x:t>
   </x:si>
   <x:si>
     <x:t>Hooking into pre conditions for Test Runs in SpecFlow</x:t>
@@ -150,9 +151,9 @@
     <x:t>Tag demonstrator</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to show the capabilities of tags in SpecFlow
-	As a SpecFlow evanglist
-	I want to write scenarios that has tags and show their usage in code</x:t>
+    <x:t>In order to show the capabilities of tags in SpecFlow  
+As a SpecFlow evanglist  
+I want to write scenarios that has tags and show their usage in code</x:t>
   </x:si>
   <x:si>
     <x:t>Ignored scenario</x:t>
@@ -209,9 +210,9 @@
     <x:t>Scenario outline</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to not have to type the same scenario over and over
-	As a SpecFlow evangelist
-	I want to show how to use ScenarioOutline</x:t>
+    <x:t>In order to not have to type the same scenario over and over  
+As a SpecFlow evangelist  
+I want to show how to use ScenarioOutline</x:t>
   </x:si>
   <x:si>
     <x:t>Add two positive numbers with many examples</x:t>
@@ -250,9 +251,9 @@
     <x:t>Scenario Context features</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to show how to use ScenarioContext
-	As a SpecFlow evangelist
-	I want to write some simple scenarios with data in ScenarioContext</x:t>
+    <x:t>In order to show how to use ScenarioContext  
+As a SpecFlow evangelist  
+I want to write some simple scenarios with data in ScenarioContext</x:t>
   </x:si>
   <x:si>
     <x:t>Store and retrive Person Marcus from ScenarioContext</x:t>
@@ -327,9 +328,9 @@
     <x:t>FeatureContext features</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to show how to use FeatureContext
-	As a SpecFlow evangelist
-	I want to write some simple scenarios with data in FeatureContext</x:t>
+    <x:t>In order to show how to use FeatureContext  
+As a SpecFlow evangelist  
+I want to write some simple scenarios with data in FeatureContext</x:t>
   </x:si>
   <x:si>
     <x:t>Store and retrive Person Marcus from FeatureContext Current</x:t>
@@ -371,9 +372,9 @@
     <x:t>Show the use of background</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to show how to use the Background keyword of Gherkin
-	As a SpecFlow evanglist
-	I want to show that background steps are called before any scenario step</x:t>
+    <x:t>In order to show how to use the Background keyword of Gherkin  
+As a SpecFlow evanglist  
+I want to show that background steps are called before any scenario step</x:t>
   </x:si>
   <x:si>
     <x:t>I have initialized the Sum-variable to 0</x:t>
@@ -400,9 +401,9 @@
     <x:t>Showing table usage</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to show how to use tables
-	As a SpecFlow evanglist
-	I want to write some simple scenarios that uses tables tables</x:t>
+    <x:t>In order to show how to use tables  
+As a SpecFlow evanglist  
+I want to write some simple scenarios that uses tables tables</x:t>
   </x:si>
   <x:si>
     <x:t>Using tables</x:t>
@@ -477,9 +478,9 @@
     <x:t>Show the compare to feature</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to show the compare to features of SpecFlow Assist
-	As a SpecFlow evanglist
-	I want to show how the different versions of compareTo works</x:t>
+    <x:t>In order to show the compare to features of SpecFlow Assist  
+As a SpecFlow evanglist  
+I want to show how the different versions of compareTo works</x:t>
   </x:si>
   <x:si>
     <x:t>CompareToInstance</x:t>
@@ -512,12 +513,12 @@
     <x:t>CompareToSet should not match this</x:t>
   </x:si>
   <x:si>
-    <x:t>Summering</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">	För att slippa att göra dumma fel
-	Som räknare
-	Vill jag kunna lägga summera</x:t>
+    <x:t>Svenska - Summering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>För att slippa att göra dumma fel  
+Som räknare  
+Vill jag kunna lägga summera</x:t>
   </x:si>
   <x:si>
     <x:t>Summera 5 och 7 ska vara 12</x:t>
@@ -547,12 +548,42 @@
     <x:t>ska resultatet vara 12</x:t>
   </x:si>
   <x:si>
+    <x:t>Test de Cultuur in het Vlaams</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Het Scenario</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Stel </x:t>
+  </x:si>
+  <x:si>
+    <x:t>dat ik 50 ingeef</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">En </x:t>
+  </x:si>
+  <x:si>
+    <x:t>dat ik 70 ingeef</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Als </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ik plus druk</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dan </x:t>
+  </x:si>
+  <x:si>
+    <x:t>moet het resultaat 120 zijn</x:t>
+  </x:si>
+  <x:si>
     <x:t>Attribute overloading</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to show that steps can be used with multiple attributes
-	As a SpecFlow Evangelist
-	I want to show that similar attributes can be applied to the same step definition</x:t>
+    <x:t>In order to show that steps can be used with multiple attributes  
+As a SpecFlow Evangelist  
+I want to show that similar attributes can be applied to the same step definition</x:t>
   </x:si>
   <x:si>
     <x:t>Checking number for evenness</x:t>
@@ -582,9 +613,9 @@
     <x:t>Calling Steps from StepDefinitions</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to create steps of a higher abstraction
-	As a SpecFlow evangelist
-	I want reuse other steps in my step definitions</x:t>
+    <x:t>In order to create steps of a higher abstraction  
+As a SpecFlow evangelist  
+I want reuse other steps in my step definitions</x:t>
   </x:si>
   <x:si>
     <x:t>Log in</x:t>
@@ -617,9 +648,9 @@
     <x:t>Step Argument Transformations</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to reduce the amount of code and repetitive tasks in my steps
-	As a SpecFlow evanglist
-	I want to define reusable transformations for my step arguments</x:t>
+    <x:t>In order to reduce the amount of code and repetitive tasks in my steps  
+As a SpecFlow evanglist  
+I want to define reusable transformations for my step arguments</x:t>
   </x:si>
   <x:si>
     <x:t>Steps with non-string arguments</x:t>
@@ -637,11 +668,11 @@
     <x:t>Injecting context into step specifications</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to don't have to rely on the global shared state
-		and to be able to define the contexts required for each scenario.
-	As a SpecFlow Evanglist
-	I would like to have the system automatically inject an instance of any class as 
-		defined in the constructor of a step file</x:t>
+    <x:t>In order to don't have to rely on the global shared state
+and to be able to define the contexts required for each scenario.  
+As a SpecFlow Evanglist  
+I would like to have the system automatically inject an instance of any class as
+defined in the constructor of a step file</x:t>
   </x:si>
   <x:si>
     <x:t>Feature with no context</x:t>
@@ -689,9 +720,9 @@
     <x:t>Nested Folder Example</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to test nested folder output
-	As a silly contributer
-	I want to create an example of something several folders deep</x:t>
+    <x:t>In order to test nested folder output  
+As a silly contributer  
+I want to create an example of something several folders deep</x:t>
   </x:si>
   <x:si>
     <x:t>Nested - Add two numbers</x:t>
@@ -712,9 +743,9 @@
     <x:t>Multiline Feature Example</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order capture this particular Gherkin feature
-	As a Pickles contributer
-	I want to demonstrate an example of using multiline text in a Scenario</x:t>
+    <x:t>In order capture this particular Gherkin feature  
+As a Pickles contributer  
+I want to demonstrate an example of using multiline text in a Scenario</x:t>
   </x:si>
   <x:si>
     <x:t>Mutliline Output</x:t>
@@ -741,10 +772,12 @@
     <x:t>Sample Markdown Feature</x:t>
   </x:si>
   <x:si>
-    <x:t>Header 1
-========
-Header 2
---------
+    <x:t># Header 1
+## Header 2
+### Header 3
+#### Header 4
+##### Header 5
+###### Header 6
 This is a *significant* word
 1. Ordered #1
 2. Ordered #2
@@ -801,7 +834,7 @@
     <x:t>that: &lt;test2&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>This __message__ is important too and is for an *Example* table.</x:t>
+    <x:t xml:space="preserve">	This __message__ is important too and is for an *Example* table.</x:t>
   </x:si>
   <x:si>
     <x:t>test</x:t>
@@ -819,10 +852,10 @@
     <x:t>Interactive DHTML View</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to increase stakeholder engagement with pickled specs
-	As a SpecFlow evangelist  
-	I want to adjust the level of detail in the DHTML view to suit my audience
-	So that I do not overwhelm them.</x:t>
+    <x:t>In order to increase stakeholder engagement with pickled specs  
+As a SpecFlow evangelist  
+I want to adjust the level of detail in the DHTML view to suite my audience  
+So that I do not overwhelm them.</x:t>
   </x:si>
   <x:si>
     <x:t>Scenario with large data table</x:t>
@@ -912,8 +945,8 @@
     <x:t>Arithmetic</x:t>
   </x:si>
   <x:si>
-    <x:t>In order to avoid silly mistakes
-As a math idiot
+    <x:t>In order to avoid silly mistakes  
+As a math idiot  
 I want to be able to perform arithmetic on the calculator
 When $a \ne 0$, there are two solutions to $\(ax^2 + bx + c = 0\)$ and they are
 $$x = {-b \pm \sqrt{b^2-4ac} \over 2a}.$$</x:t>
@@ -961,9 +994,9 @@
     <x:t>Trigonometry</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to avoid perform more advanced calculations
-	As a math idiot
-	I want to be able to use trigonometric functions</x:t>
+    <x:t>In order to avoid perform more advanced calculations  
+As a math idiot  
+I want to be able to use trigonometric functions</x:t>
   </x:si>
   <x:si>
     <x:t>Sine</x:t>
@@ -999,9 +1032,9 @@
     <x:t>Clearing Screen</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">	In order to restart a new set of calculations
-	As a math idiot
-	I want to be able to clear the screen</x:t>
+    <x:t>In order to restart a new set of calculations  
+As a math idiot  
+I want to be able to clear the screen</x:t>
   </x:si>
   <x:si>
     <x:t>Clear the screen</x:t>
@@ -1043,7 +1076,7 @@
     <x:t>06 Compare To Assist</x:t>
   </x:si>
   <x:si>
-    <x:t>07 Svenska</x:t>
+    <x:t>07 Localization</x:t>
   </x:si>
   <x:si>
     <x:t>08 Attribute Overloading</x:t>
@@ -1539,7 +1572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E44"/>
+  <x:dimension ref="A1:E45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1547,22 +1580,22 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="B2" s="8" t="s">
-        <x:v>267</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="B3" s="8" t="s">
-        <x:v>282</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="B4" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -1572,7 +1605,7 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="B6" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -1582,7 +1615,7 @@
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="B8" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1597,7 +1630,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="B11" s="1" t="s">
-        <x:v>303</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -1607,7 +1640,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="B13" s="1" t="s">
-        <x:v>304</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1617,7 +1650,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="B15" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1627,7 +1660,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="B17" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -1637,7 +1670,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="B19" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1647,7 +1680,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="B21" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1657,7 +1690,7 @@
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="B23" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1666,103 +1699,108 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
-      <x:c r="B25" s="1" t="s">
-        <x:v>310</x:v>
+      <x:c r="C25" s="8" t="s">
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="C26" s="8" t="s">
-        <x:v>162</x:v>
+      <x:c r="B26" s="1" t="s">
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
-      <x:c r="B27" s="1" t="s">
-        <x:v>311</x:v>
+      <x:c r="C27" s="8" t="s">
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
-      <x:c r="C28" s="8" t="s">
-        <x:v>172</x:v>
+      <x:c r="B28" s="1" t="s">
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
-      <x:c r="B29" s="1" t="s">
-        <x:v>312</x:v>
+      <x:c r="C29" s="8" t="s">
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
-      <x:c r="C30" s="8" t="s">
-        <x:v>183</x:v>
+      <x:c r="B30" s="1" t="s">
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
-      <x:c r="B31" s="1" t="s">
-        <x:v>313</x:v>
+      <x:c r="C31" s="8" t="s">
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
-      <x:c r="C32" s="8" t="s">
-        <x:v>189</x:v>
+      <x:c r="B32" s="1" t="s">
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
-      <x:c r="B33" s="1" t="s">
-        <x:v>314</x:v>
+      <x:c r="C33" s="8" t="s">
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
-      <x:c r="C34" s="1" t="s">
-        <x:v>315</x:v>
+      <x:c r="B34" s="1" t="s">
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
-      <x:c r="D35" s="1" t="s">
-        <x:v>316</x:v>
+      <x:c r="C35" s="1" t="s">
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
-      <x:c r="E36" s="8" t="s">
-        <x:v>205</x:v>
+      <x:c r="D36" s="1" t="s">
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
-      <x:c r="B37" s="1" t="s">
-        <x:v>317</x:v>
+      <x:c r="E37" s="8" t="s">
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
-      <x:c r="C38" s="8" t="s">
-        <x:v>212</x:v>
+      <x:c r="B38" s="1" t="s">
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
-      <x:c r="B39" s="1" t="s">
-        <x:v>318</x:v>
+      <x:c r="C39" s="8" t="s">
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
-      <x:c r="C40" s="8" t="s">
-        <x:v>221</x:v>
+      <x:c r="B40" s="1" t="s">
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
-      <x:c r="B41" s="1" t="s">
-        <x:v>319</x:v>
+      <x:c r="C41" s="8" t="s">
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
-      <x:c r="C42" s="8" t="s">
-        <x:v>237</x:v>
+      <x:c r="B42" s="1" t="s">
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
-      <x:c r="B43" s="1" t="s">
-        <x:v>320</x:v>
+      <x:c r="C43" s="8" t="s">
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
-      <x:c r="C44" s="8" t="s">
-        <x:v>294</x:v>
+      <x:c r="B44" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="C45" s="8" t="s">
+        <x:v>304</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1779,16 +1817,17 @@
     <x:hyperlink ref="C18" location="'SHOWTHEUSEOFBACKGROUND'!A1" display="Show the use of background"/>
     <x:hyperlink ref="C20" location="'SHOWINGTABLEUSAGE'!A1" display="Showing table usage"/>
     <x:hyperlink ref="C22" location="'SHOWTHECOMPARETOFEATURE'!A1" display="Show the compare to feature"/>
-    <x:hyperlink ref="C24" location="'SUMMERING'!A1" display="Summering"/>
-    <x:hyperlink ref="C26" location="'ATTRIBUTEOVERLOADING'!A1" display="Attribute overloading"/>
-    <x:hyperlink ref="C28" location="'CALLINGSTEPSFROMSTEPDEFINITIONS'!A1" display="Calling Steps from StepDefinitions"/>
-    <x:hyperlink ref="C30" location="'STEPARGUMENTTRANSFORMATIONS'!A1" display="Step Argument Transformations"/>
-    <x:hyperlink ref="C32" location="'INJECTINGCONTEXTINTOSTEPSPECIFI'!A1" display="Injecting context into step specifications"/>
-    <x:hyperlink ref="E36" location="'NESTEDFOLDEREXAMPLE'!A1" display="Nested Folder Example"/>
-    <x:hyperlink ref="C38" location="'MULTILINEFEATUREEXAMPLE'!A1" display="Multiline Feature Example"/>
-    <x:hyperlink ref="C40" location="'SAMPLEMARKDOWNFEATURE'!A1" display="Sample Markdown Feature"/>
-    <x:hyperlink ref="C42" location="'INTERACTIVEDHTMLVIEW'!A1" display="Interactive DHTML View"/>
-    <x:hyperlink ref="C44" location="'CLEARINGSCREEN'!A1" display="Clearing Screen"/>
+    <x:hyperlink ref="C24" location="'SVENSKA-SUMMERING'!A1" display="Svenska - Summering"/>
+    <x:hyperlink ref="C25" location="'TESTDECULTUURINHETVLAAMS'!A1" display="Test de Cultuur in het Vlaams"/>
+    <x:hyperlink ref="C27" location="'ATTRIBUTEOVERLOADING'!A1" display="Attribute overloading"/>
+    <x:hyperlink ref="C29" location="'CALLINGSTEPSFROMSTEPDEFINITIONS'!A1" display="Calling Steps from StepDefinitions"/>
+    <x:hyperlink ref="C31" location="'STEPARGUMENTTRANSFORMATIONS'!A1" display="Step Argument Transformations"/>
+    <x:hyperlink ref="C33" location="'INJECTINGCONTEXTINTOSTEPSPECIFI'!A1" display="Injecting context into step specifications"/>
+    <x:hyperlink ref="E37" location="'NESTEDFOLDEREXAMPLE'!A1" display="Nested Folder Example"/>
+    <x:hyperlink ref="C39" location="'MULTILINEFEATUREEXAMPLE'!A1" display="Multiline Feature Example"/>
+    <x:hyperlink ref="C41" location="'SAMPLEMARKDOWNFEATURE'!A1" display="Sample Markdown Feature"/>
+    <x:hyperlink ref="C43" location="'INTERACTIVEDHTMLVIEW'!A1" display="Interactive DHTML View"/>
+    <x:hyperlink ref="C45" location="'CLEARINGSCREEN'!A1" display="Clearing Screen"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1803,7 +1842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D29"/>
+  <x:dimension ref="A1:D8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1811,148 +1850,42 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="B2" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="B9" s="1" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="B14" s="1" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4">
-      <x:c r="B25" s="1" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
-      <x:c r="C29" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>204</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1969,7 +1902,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:D29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1977,52 +1910,138 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="B2" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="B9" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4"/>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4"/>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4"/>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D23" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="B25" s="1" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4"/>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>211</x:v>
+      <x:c r="D28" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>214</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2039,7 +2058,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D11"/>
+  <x:dimension ref="A1:D9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2047,59 +2066,50 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="B2" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s">
-        <x:v>214</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2116,120 +2126,65 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E21"/>
+  <x:dimension ref="A1:D11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>221</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
       <x:c r="B2" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="B4" s="1" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="C5" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5">
+    <x:row r="4" spans="1:4">
+      <x:c r="B4" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4"/>
+    <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="C7" s="2" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="D7" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="D8" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="D9" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="B9" s="1" t="s">
-        <x:v>224</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="C10" s="7" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
+      <x:c r="D10" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
       <x:c r="C11" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="C12" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="B14" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="C15" s="7" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="C16" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
         <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="C17" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="B19" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="C20" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="D20" s="4" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="E20" s="4" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="D21" s="5" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="E21" s="5" t="s">
-        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2246,7 +2201,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E31"/>
+  <x:dimension ref="A1:E21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2254,228 +2209,112 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="B2" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="B4" s="1" t="s">
-        <x:v>239</x:v>
-      </x:c>
+      <x:c r="B4" s="1" t="s"/>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="C5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="C7" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="B9" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="C10" s="7" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="C11" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="C12" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="B14" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="C15" s="7" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="C16" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="D7" s="4" t="s">
+    <x:row r="17" spans="1:5">
+      <x:c r="C17" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="E7" s="4" t="s">
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="B19" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="C20" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="D8" s="5" t="s">
+      <x:c r="D20" s="4" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="E8" s="5" t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="D9" s="5" t="s">
+      <x:c r="E20" s="4" t="s">
         <x:v>244</x:v>
-      </x:c>
-      <x:c r="E9" s="5" t="n">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="D10" s="5" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="n">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="D11" s="5" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="E11" s="5" t="n">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="D12" s="5" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="E12" s="5" t="n">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="D13" s="5" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="E13" s="5" t="n">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="D14" s="5" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="E14" s="5" t="n">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="D15" s="5" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="E15" s="5" t="n">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="D16" s="5" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="E16" s="5" t="n">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="D17" s="5" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="E17" s="5" t="n">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="D18" s="5" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="E18" s="5" t="n">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="D19" s="5" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="E19" s="5" t="n">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="D20" s="5" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="E20" s="5" t="n">
-        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="D21" s="5" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="E21" s="5" t="n">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="D22" s="5" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="E22" s="5" t="n">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="D23" s="5" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="E23" s="5" t="n">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="D24" s="5" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="E24" s="5" t="n">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="D25" s="5" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="E25" s="5" t="n">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="D26" s="5" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="E26" s="5" t="n">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="D27" s="5" t="s">
-        <x:v>262</x:v>
-      </x:c>
-      <x:c r="E27" s="5" t="n">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="D28" s="5" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="E28" s="5" t="n">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="D29" s="5" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="E29" s="5" t="n">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="C30" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>265</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:5">
-      <x:c r="C31" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E21" s="5" t="s">
+        <x:v>246</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2492,187 +2331,234 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D31"/>
+  <x:dimension ref="A1:E31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="B2" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="B4" s="1" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5"/>
+    <x:row r="6" spans="1:5">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="D7" s="4" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="E7" s="4" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="D8" s="5" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="D9" s="5" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="D10" s="5" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="n">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="D11" s="5" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="n">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="D12" s="5" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="n">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="D13" s="5" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="n">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="D14" s="5" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="E14" s="5" t="n">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="D15" s="5" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="E15" s="5" t="n">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="D16" s="5" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="E16" s="5" t="n">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="D17" s="5" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="E17" s="5" t="n">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="D18" s="5" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="E18" s="5" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="D19" s="5" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="E19" s="5" t="n">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="D20" s="5" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="E20" s="5" t="n">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="D21" s="5" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="E21" s="5" t="n">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="D22" s="5" t="s">
         <x:v>267</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
+      <x:c r="E22" s="5" t="n">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="D23" s="5" t="s">
         <x:v>268</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
+      <x:c r="E23" s="5" t="n">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="D24" s="5" t="s">
         <x:v>269</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s">
+      <x:c r="E24" s="5" t="n">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="D25" s="5" t="s">
         <x:v>270</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="C6" s="3" t="s">
+      <x:c r="E25" s="5" t="n">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="D26" s="5" t="s">
         <x:v>271</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
+      <x:c r="E26" s="5" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="D27" s="5" t="s">
         <x:v>272</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="C14" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="E27" s="5" t="n">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="D28" s="5" t="s">
         <x:v>273</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="E28" s="5" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="D29" s="5" t="s">
         <x:v>274</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
-        <x:v>275</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>276</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="C24" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="B26" s="1" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
-      <x:c r="C29" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4">
+      <x:c r="E29" s="5" t="n">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
       <x:c r="C30" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:4">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
       <x:c r="C31" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2689,7 +2575,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D20"/>
+  <x:dimension ref="A1:D31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2697,108 +2583,173 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="B2" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>285</x:v>
+      <x:c r="C6" s="3" t="s">
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>287</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="B10" s="1" t="s">
-        <x:v>288</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>289</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>290</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B12" s="1" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4"/>
     <x:row r="14" spans="1:4">
       <x:c r="C14" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
+      <x:c r="D17" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="1" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4"/>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
         <x:v>287</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="B16" s="1" t="s">
+    <x:row r="26" spans="1:4">
+      <x:c r="B26" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4"/>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="C30" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="C31" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
         <x:v>291</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>292</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="C19" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>287</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2815,6 +2766,126 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
+  <x:dimension ref="A1:D20"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="B2" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="B4" s="1" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4"/>
+    <x:row r="6" spans="1:4">
+      <x:c r="C6" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="B10" s="1" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4"/>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="B16" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4"/>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
   <x:dimension ref="A1:D9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -2823,28 +2894,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="B2" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s">
-        <x:v>296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -2852,7 +2921,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -2860,7 +2929,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2868,7 +2937,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2906,9 +2975,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -2938,9 +3005,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="0" t="s"/>
-    </x:row>
+    <x:row r="11" spans="1:4"/>
     <x:row r="12" spans="1:4">
       <x:c r="C12" s="2" t="s">
         <x:v>3</x:v>
@@ -3024,9 +3089,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -3086,9 +3149,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -3110,9 +3171,7 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="0" t="s"/>
-    </x:row>
+    <x:row r="10" spans="1:4"/>
     <x:row r="11" spans="1:4">
       <x:c r="C11" s="2" t="s">
         <x:v>3</x:v>
@@ -3134,9 +3193,7 @@
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="0" t="s"/>
-    </x:row>
+    <x:row r="15" spans="1:4"/>
     <x:row r="16" spans="1:4">
       <x:c r="C16" s="2" t="s">
         <x:v>3</x:v>
@@ -3158,9 +3215,7 @@
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="0" t="s"/>
-    </x:row>
+    <x:row r="20" spans="1:4"/>
     <x:row r="21" spans="1:4">
       <x:c r="C21" s="2" t="s">
         <x:v>3</x:v>
@@ -3182,9 +3237,7 @@
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:4">
-      <x:c r="C25" s="0" t="s"/>
-    </x:row>
+    <x:row r="25" spans="1:4"/>
     <x:row r="26" spans="1:4">
       <x:c r="C26" s="2" t="s">
         <x:v>3</x:v>
@@ -3236,9 +3289,7 @@
         <x:v>36</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -3276,9 +3327,7 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="0" t="s"/>
-    </x:row>
+    <x:row r="12" spans="1:4"/>
     <x:row r="13" spans="1:4">
       <x:c r="C13" s="2" t="s">
         <x:v>3</x:v>
@@ -3308,9 +3357,7 @@
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="0" t="s"/>
-    </x:row>
+    <x:row r="18" spans="1:4"/>
     <x:row r="19" spans="1:4">
       <x:c r="C19" s="2" t="s">
         <x:v>3</x:v>
@@ -3340,9 +3387,7 @@
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="C24" s="0" t="s"/>
-    </x:row>
+    <x:row r="24" spans="1:4"/>
     <x:row r="25" spans="1:4">
       <x:c r="C25" s="2" t="s">
         <x:v>3</x:v>
@@ -3372,9 +3417,7 @@
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:4">
-      <x:c r="C30" s="0" t="s"/>
-    </x:row>
+    <x:row r="30" spans="1:4"/>
     <x:row r="31" spans="1:4">
       <x:c r="C31" s="2" t="s">
         <x:v>3</x:v>
@@ -3434,9 +3477,7 @@
         <x:v>55</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:6"/>
     <x:row r="6" spans="1:6">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -3480,7 +3521,6 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
-      <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="4" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -3530,7 +3570,6 @@
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
-      <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="4" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -3568,9 +3607,7 @@
         <x:v>65</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="C23" s="0" t="s"/>
-    </x:row>
+    <x:row r="23" spans="1:6"/>
     <x:row r="24" spans="1:6">
       <x:c r="C24" s="2" t="s">
         <x:v>3</x:v>
@@ -3609,7 +3646,6 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
-      <x:c r="C30" s="0" t="s"/>
       <x:c r="D30" s="4" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -3659,7 +3695,6 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
-      <x:c r="C35" s="0" t="s"/>
       <x:c r="D35" s="4" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -3727,9 +3762,7 @@
         <x:v>68</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:5"/>
     <x:row r="6" spans="1:5">
       <x:c r="C6" s="2" t="s">
         <x:v>5</x:v>
@@ -3751,9 +3784,7 @@
         <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="C10" s="0" t="s"/>
-    </x:row>
+    <x:row r="10" spans="1:5"/>
     <x:row r="11" spans="1:5">
       <x:c r="C11" s="2" t="s">
         <x:v>5</x:v>
@@ -3799,9 +3830,7 @@
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="C18" s="0" t="s"/>
-    </x:row>
+    <x:row r="18" spans="1:5"/>
     <x:row r="19" spans="1:5">
       <x:c r="C19" s="2" t="s">
         <x:v>3</x:v>
@@ -3849,9 +3878,7 @@
         <x:v>86</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="C27" s="0" t="s"/>
-    </x:row>
+    <x:row r="27" spans="1:5"/>
     <x:row r="28" spans="1:5">
       <x:c r="C28" s="2" t="s">
         <x:v>5</x:v>
@@ -3865,9 +3892,7 @@
         <x:v>88</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:5">
-      <x:c r="C31" s="0" t="s"/>
-    </x:row>
+    <x:row r="31" spans="1:5"/>
     <x:row r="32" spans="1:5">
       <x:c r="C32" s="2" t="s">
         <x:v>5</x:v>
@@ -3919,9 +3944,7 @@
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:5"/>
     <x:row r="6" spans="1:5">
       <x:c r="C6" s="2" t="s">
         <x:v>5</x:v>
@@ -3943,9 +3966,7 @@
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="C10" s="0" t="s"/>
-    </x:row>
+    <x:row r="10" spans="1:5"/>
     <x:row r="11" spans="1:5">
       <x:c r="C11" s="2" t="s">
         <x:v>5</x:v>
@@ -4043,9 +4064,7 @@
     <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -4067,9 +4086,7 @@
         <x:v>109</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="0" t="s"/>
-    </x:row>
+    <x:row r="10" spans="1:4"/>
     <x:row r="11" spans="1:4">
       <x:c r="C11" s="2" t="s">
         <x:v>5</x:v>
@@ -4091,9 +4108,7 @@
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="0" t="s"/>
-    </x:row>
+    <x:row r="15" spans="1:4"/>
     <x:row r="16" spans="1:4">
       <x:c r="C16" s="2" t="s">
         <x:v>5</x:v>
@@ -4145,9 +4160,7 @@
         <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:35">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:35"/>
     <x:row r="6" spans="1:35">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -4261,9 +4274,7 @@
         <x:v>130</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:35">
-      <x:c r="C17" s="0" t="s"/>
-    </x:row>
+    <x:row r="17" spans="1:35"/>
     <x:row r="18" spans="1:35">
       <x:c r="C18" s="2" t="s">
         <x:v>3</x:v>
@@ -4377,9 +4388,7 @@
         <x:v>134</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:35">
-      <x:c r="C29" s="0" t="s"/>
-    </x:row>
+    <x:row r="29" spans="1:35"/>
     <x:row r="30" spans="1:35">
       <x:c r="C30" s="2" t="s">
         <x:v>5</x:v>
@@ -4469,9 +4478,7 @@
         <x:v>137</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:35">
-      <x:c r="C41" s="0" t="s"/>
-    </x:row>
+    <x:row r="41" spans="1:35"/>
     <x:row r="42" spans="1:35">
       <x:c r="C42" s="2" t="s">
         <x:v>3</x:v>
@@ -4711,9 +4718,7 @@
         <x:v>141</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:6"/>
     <x:row r="6" spans="1:6">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -4881,9 +4886,7 @@
         <x:v>148</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6">
-      <x:c r="C29" s="0" t="s"/>
-    </x:row>
+    <x:row r="29" spans="1:6"/>
     <x:row r="30" spans="1:6">
       <x:c r="C30" s="2" t="s">
         <x:v>3</x:v>
@@ -5064,9 +5067,7 @@
         <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>154</x:v>
@@ -5113,7 +5114,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D12"/>
+  <x:dimension ref="A1:D9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5124,22 +5125,16 @@
         <x:v>162</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="2" spans="1:4"/>
     <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s">
-        <x:v>164</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>165</x:v>
@@ -5147,49 +5142,25 @@
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
     </x:row>
@@ -5207,7 +5178,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D15"/>
+  <x:dimension ref="A1:D12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5228,9 +5199,7 @@
         <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
@@ -5241,7 +5210,7 @@
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>176</x:v>
@@ -5257,42 +5226,34 @@
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
     </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="B11" s="1" t="s">
-        <x:v>179</x:v>
+      <x:c r="C11" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="C12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="C14" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
+      <x:c r="C12" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>181</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>182</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5309,7 +5270,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D8"/>
+  <x:dimension ref="A1:D15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -5317,44 +5278,80 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="B2" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="C5" s="0" t="s"/>
-    </x:row>
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4"/>
     <x:row r="6" spans="1:4">
       <x:c r="C6" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="C7" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="B11" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4"/>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/docs/Output/Excel/features.xlsx
+++ b/docs/Output/Excel/features.xlsx
@@ -27,9 +27,10 @@
     <x:sheet name="MULTILINEFEATUREEXAMPLE" sheetId="20" r:id="rId20"/>
     <x:sheet name="SAMPLEMARKDOWNFEATURE" sheetId="21" r:id="rId21"/>
     <x:sheet name="INTERACTIVEDHTMLVIEW" sheetId="22" r:id="rId22"/>
-    <x:sheet name="ARITHMETIC" sheetId="23" r:id="rId23"/>
-    <x:sheet name="TRIGONOMETRY" sheetId="24" r:id="rId24"/>
-    <x:sheet name="CLEARINGSCREEN" sheetId="25" r:id="rId25"/>
+    <x:sheet name="KINDSOFVERIFICATION" sheetId="23" r:id="rId23"/>
+    <x:sheet name="ARITHMETIC" sheetId="24" r:id="rId24"/>
+    <x:sheet name="TRIGONOMETRY" sheetId="25" r:id="rId25"/>
+    <x:sheet name="CLEARINGSCREEN" sheetId="26" r:id="rId26"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <x:si>
     <x:t>Showing basic gherkin syntax</x:t>
   </x:si>
@@ -979,6 +980,51 @@
   </x:si>
   <x:si>
     <x:t>the table body should collapse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kinds of verification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In order to increase stakeholder engagement with pickled specs
+As a SpecFlow evangelist
+I want to make clear how many scenarios are automated, manually tested and not tested
+So that the stakeholders have a better overview of progress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verified automatically</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@automated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a feature that is verified automatically</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I run pickles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>it appears in the @automated summary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Verified manually</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@manual</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a feature that is verified manually</x:t>
+  </x:si>
+  <x:si>
+    <x:t>it appears in the @manual summary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@notTested_waitingForAutomation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a feature that is not verified</x:t>
+  </x:si>
+  <x:si>
+    <x:t>it appears in the @notTested summary</x:t>
   </x:si>
   <x:si>
     <x:t>Arithmetic</x:t>
@@ -1635,7 +1681,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E45"/>
+  <x:dimension ref="A1:E46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1643,22 +1689,22 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>325</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="B2" s="9" t="s">
-        <x:v>290</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="B3" s="9" t="s">
-        <x:v>306</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="B4" s="1" t="s">
-        <x:v>326</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -1668,7 +1714,7 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="B6" s="1" t="s">
-        <x:v>327</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -1678,7 +1724,7 @@
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="B8" s="1" t="s">
-        <x:v>328</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1693,7 +1739,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="B11" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -1703,7 +1749,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="B13" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1713,7 +1759,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="B15" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1723,7 +1769,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="B17" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -1733,7 +1779,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="B19" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1743,7 +1789,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="B21" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1753,7 +1799,7 @@
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="B23" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1768,7 +1814,7 @@
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="B26" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1778,7 +1824,7 @@
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="B28" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1788,7 +1834,7 @@
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="B30" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
@@ -1798,7 +1844,7 @@
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="B32" s="1" t="s">
-        <x:v>339</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1808,17 +1854,17 @@
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="B34" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="C35" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="D36" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
@@ -1828,7 +1874,7 @@
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="B38" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
@@ -1838,7 +1884,7 @@
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="B40" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
@@ -1848,7 +1894,7 @@
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="B42" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
@@ -1857,13 +1903,18 @@
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
-      <x:c r="B44" s="1" t="s">
-        <x:v>346</x:v>
+      <x:c r="C44" s="9" t="s">
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
-      <x:c r="C45" s="9" t="s">
-        <x:v>319</x:v>
+      <x:c r="B45" s="1" t="s">
+        <x:v>360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="C46" s="9" t="s">
+        <x:v>333</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1890,7 +1941,8 @@
     <x:hyperlink ref="C39" location="'MULTILINEFEATUREEXAMPLE'!A1" display="Multiline Feature Example"/>
     <x:hyperlink ref="C41" location="'SAMPLEMARKDOWNFEATURE'!A1" display="Sample Markdown Feature"/>
     <x:hyperlink ref="C43" location="'INTERACTIVEDHTMLVIEW'!A1" display="Interactive DHTML View"/>
-    <x:hyperlink ref="C45" location="'CLEARINGSCREEN'!A1" display="Clearing Screen"/>
+    <x:hyperlink ref="C44" location="'KINDSOFVERIFICATION'!A1" display="Kinds of verification"/>
+    <x:hyperlink ref="C46" location="'CLEARINGSCREEN'!A1" display="Clearing Screen"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2664,7 +2716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D36"/>
+  <x:dimension ref="A1:D24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2693,184 +2745,105 @@
         <x:v>293</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="C7" s="0" t="s">
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>294</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="4" t="s">
-        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="C10" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="2" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="B14" s="1" t="s">
-        <x:v>296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="B15" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4"/>
+      <x:c r="D16" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="B20" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4"/>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D22" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D23" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>298</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
-      <x:c r="B22" s="1" t="s">
-        <x:v>299</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="B23" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C23" s="3" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4"/>
-    <x:row r="25" spans="1:4">
-      <x:c r="C25" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4">
-      <x:c r="B30" s="1" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:4">
-      <x:c r="B31" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C31" s="3" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:4"/>
-    <x:row r="33" spans="1:4">
-      <x:c r="C33" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:4">
-      <x:c r="C34" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
+      <x:c r="D24" s="0" t="s">
         <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:4">
-      <x:c r="C35" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:4">
-      <x:c r="C36" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>305</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2887,7 +2860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D24"/>
+  <x:dimension ref="A1:D36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2895,17 +2868,17 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2913,108 +2886,187 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="C7" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="4" t="s">
         <x:v>309</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="C10" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>312</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
-        <x:v>313</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="B13" s="3" t="s">
+      <x:c r="D12" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="1" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="B15" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C13" s="3" t="s">
-        <x:v>309</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4"/>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>314</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>315</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="C15" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4"/>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="B19" s="1" t="s">
+    <x:row r="22" spans="1:4">
+      <x:c r="B22" s="1" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="B23" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4"/>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="B30" s="1" t="s">
         <x:v>316</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="B20" s="3" t="s">
+    <x:row r="31" spans="1:4">
+      <x:c r="B31" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>309</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4"/>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="2" t="s">
+      <x:c r="C31" s="3" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4"/>
+    <x:row r="33" spans="1:4">
+      <x:c r="C33" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
+      <x:c r="D33" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
         <x:v>317</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="2" t="s">
+    <x:row r="35" spans="1:4">
+      <x:c r="C35" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
+      <x:c r="D35" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="C24" s="2" t="s">
+    <x:row r="36" spans="1:4">
+      <x:c r="C36" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>312</x:v>
+      <x:c r="D36" s="0" t="s">
+        <x:v>319</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3031,6 +3083,150 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
+  <x:dimension ref="A1:D24"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="B19" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="B20" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4"/>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
   <x:dimension ref="A1:D11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -3039,17 +3235,17 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -3057,7 +3253,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>322</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -3082,7 +3278,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -3090,7 +3286,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
